--- a/published-data/fonds-solidarite/fds-2021-09-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-09-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>753457</v>
+        <v>753641</v>
       </c>
       <c r="D2" t="n">
-        <v>155876</v>
+        <v>155877</v>
       </c>
       <c r="E2" t="n">
-        <v>1415569244</v>
+        <v>1415847169</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -671,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3973</v>
+        <v>3976</v>
       </c>
       <c r="D8" t="n">
         <v>618</v>
       </c>
       <c r="E8" t="n">
-        <v>28810908</v>
+        <v>28831719</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -753,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>332826</v>
+        <v>332959</v>
       </c>
       <c r="D10" t="n">
         <v>64095</v>
       </c>
       <c r="E10" t="n">
-        <v>1749284860</v>
+        <v>1750261485</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -794,13 +861,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D11" t="n">
         <v>250</v>
       </c>
       <c r="E11" t="n">
-        <v>39663969</v>
+        <v>39689103</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -876,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>179802</v>
+        <v>179902</v>
       </c>
       <c r="D13" t="n">
-        <v>33090</v>
+        <v>33095</v>
       </c>
       <c r="E13" t="n">
-        <v>1077250040</v>
+        <v>1078336027</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D14" t="n">
         <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>912045</v>
+        <v>982004</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1122,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>26225</v>
+        <v>26242</v>
       </c>
       <c r="D19" t="n">
         <v>4194</v>
       </c>
       <c r="E19" t="n">
-        <v>120595008</v>
+        <v>120662512</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1204,13 +1271,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>172369</v>
+        <v>172409</v>
       </c>
       <c r="D21" t="n">
-        <v>38022</v>
+        <v>38024</v>
       </c>
       <c r="E21" t="n">
-        <v>314231672</v>
+        <v>314285495</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1450,13 +1517,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>87019</v>
+        <v>87048</v>
       </c>
       <c r="D27" t="n">
         <v>17542</v>
       </c>
       <c r="E27" t="n">
-        <v>429360141</v>
+        <v>429439133</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1573,13 +1640,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>33812</v>
+        <v>33819</v>
       </c>
       <c r="D30" t="n">
         <v>6508</v>
       </c>
       <c r="E30" t="n">
-        <v>183724243</v>
+        <v>183737613</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1696,13 +1763,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4514</v>
+        <v>4517</v>
       </c>
       <c r="D33" t="n">
         <v>1332</v>
       </c>
       <c r="E33" t="n">
-        <v>20611792</v>
+        <v>20663335</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1778,13 +1845,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6675</v>
+        <v>6679</v>
       </c>
       <c r="D35" t="n">
         <v>1088</v>
       </c>
       <c r="E35" t="n">
-        <v>30199413</v>
+        <v>30203670</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1819,13 +1886,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>207719</v>
+        <v>207761</v>
       </c>
       <c r="D36" t="n">
         <v>48120</v>
       </c>
       <c r="E36" t="n">
-        <v>401156496</v>
+        <v>401209707</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1942,13 +2009,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4794</v>
+        <v>4799</v>
       </c>
       <c r="D39" t="n">
         <v>646</v>
       </c>
       <c r="E39" t="n">
-        <v>32266272</v>
+        <v>32300523</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2024,13 +2091,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>123087</v>
+        <v>123134</v>
       </c>
       <c r="D41" t="n">
         <v>24235</v>
       </c>
       <c r="E41" t="n">
-        <v>645271007</v>
+        <v>645652969</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2147,13 +2214,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>28449</v>
+        <v>28459</v>
       </c>
       <c r="D44" t="n">
         <v>5495</v>
       </c>
       <c r="E44" t="n">
-        <v>188235734</v>
+        <v>188278764</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2229,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="D46" t="n">
         <v>832</v>
       </c>
       <c r="E46" t="n">
-        <v>8033215</v>
+        <v>8072491</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2270,13 +2337,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8980</v>
+        <v>8992</v>
       </c>
       <c r="D47" t="n">
         <v>1465</v>
       </c>
       <c r="E47" t="n">
-        <v>42072844</v>
+        <v>42163216</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2311,13 +2378,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>148111</v>
+        <v>148136</v>
       </c>
       <c r="D48" t="n">
-        <v>33497</v>
+        <v>33499</v>
       </c>
       <c r="E48" t="n">
-        <v>273003182</v>
+        <v>273023274</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2557,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>72777</v>
+        <v>72810</v>
       </c>
       <c r="D54" t="n">
         <v>14899</v>
       </c>
       <c r="E54" t="n">
-        <v>347992059</v>
+        <v>348299156</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2598,13 +2665,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D55" t="n">
         <v>43</v>
       </c>
       <c r="E55" t="n">
-        <v>4940771</v>
+        <v>4948522</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2639,13 +2706,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D56" t="n">
         <v>9</v>
       </c>
       <c r="E56" t="n">
-        <v>1788208</v>
+        <v>1791344</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2680,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>30491</v>
+        <v>30505</v>
       </c>
       <c r="D57" t="n">
         <v>5993</v>
       </c>
       <c r="E57" t="n">
-        <v>154034744</v>
+        <v>154089556</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2762,13 +2829,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3530</v>
+        <v>3538</v>
       </c>
       <c r="D59" t="n">
         <v>939</v>
       </c>
       <c r="E59" t="n">
-        <v>15648665</v>
+        <v>15698539</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2844,13 +2911,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5853</v>
+        <v>5860</v>
       </c>
       <c r="D61" t="n">
         <v>1012</v>
       </c>
       <c r="E61" t="n">
-        <v>23974479</v>
+        <v>23996525</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2926,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>48508</v>
+        <v>48511</v>
       </c>
       <c r="D63" t="n">
         <v>9524</v>
       </c>
       <c r="E63" t="n">
-        <v>102840623</v>
+        <v>102851989</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3090,13 +3157,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>26477</v>
+        <v>26485</v>
       </c>
       <c r="D67" t="n">
         <v>4260</v>
       </c>
       <c r="E67" t="n">
-        <v>164354958</v>
+        <v>164374217</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3172,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17387</v>
+        <v>17391</v>
       </c>
       <c r="D69" t="n">
         <v>2899</v>
       </c>
       <c r="E69" t="n">
-        <v>100984370</v>
+        <v>101021040</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3295,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>325164</v>
+        <v>325234</v>
       </c>
       <c r="D72" t="n">
         <v>71611</v>
       </c>
       <c r="E72" t="n">
-        <v>628553680</v>
+        <v>628655553</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3418,13 +3485,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D75" t="n">
         <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>277918</v>
+        <v>278408</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3459,13 +3526,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2048</v>
+        <v>2053</v>
       </c>
       <c r="D76" t="n">
         <v>312</v>
       </c>
       <c r="E76" t="n">
-        <v>12452878</v>
+        <v>12510328</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3541,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>172066</v>
+        <v>172119</v>
       </c>
       <c r="D78" t="n">
-        <v>34665</v>
+        <v>34667</v>
       </c>
       <c r="E78" t="n">
-        <v>862243975</v>
+        <v>862790069</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3664,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>84861</v>
+        <v>84909</v>
       </c>
       <c r="D81" t="n">
-        <v>16543</v>
+        <v>16546</v>
       </c>
       <c r="E81" t="n">
-        <v>467273064</v>
+        <v>467770079</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3787,13 +3854,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>26517</v>
+        <v>26530</v>
       </c>
       <c r="D84" t="n">
         <v>6720</v>
       </c>
       <c r="E84" t="n">
-        <v>152218885</v>
+        <v>152292093</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3869,13 +3936,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10726</v>
+        <v>10731</v>
       </c>
       <c r="D86" t="n">
         <v>1740</v>
       </c>
       <c r="E86" t="n">
-        <v>47162696</v>
+        <v>47245684</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3951,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>63049</v>
+        <v>63063</v>
       </c>
       <c r="D88" t="n">
         <v>12271</v>
       </c>
       <c r="E88" t="n">
-        <v>99687048</v>
+        <v>99703113</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4074,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>15638</v>
+        <v>15653</v>
       </c>
       <c r="D91" t="n">
         <v>3299</v>
       </c>
       <c r="E91" t="n">
-        <v>53560020</v>
+        <v>53642672</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4156,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>14313</v>
+        <v>14325</v>
       </c>
       <c r="D93" t="n">
         <v>2825</v>
       </c>
       <c r="E93" t="n">
-        <v>38145200</v>
+        <v>38183615</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4279,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>26035</v>
+        <v>26043</v>
       </c>
       <c r="D96" t="n">
         <v>3757</v>
       </c>
       <c r="E96" t="n">
-        <v>51384688</v>
+        <v>51393123</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4361,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5545</v>
+        <v>5546</v>
       </c>
       <c r="D98" t="n">
         <v>904</v>
       </c>
       <c r="E98" t="n">
-        <v>16145499</v>
+        <v>16146999</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4443,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8201</v>
+        <v>8205</v>
       </c>
       <c r="D100" t="n">
         <v>1273</v>
       </c>
       <c r="E100" t="n">
-        <v>20547156</v>
+        <v>20561656</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4607,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>313908</v>
+        <v>313971</v>
       </c>
       <c r="D104" t="n">
-        <v>67877</v>
+        <v>67878</v>
       </c>
       <c r="E104" t="n">
-        <v>556637251</v>
+        <v>556702443</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4853,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4609</v>
+        <v>4613</v>
       </c>
       <c r="D110" t="n">
         <v>620</v>
       </c>
       <c r="E110" t="n">
-        <v>27583225</v>
+        <v>27606562</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4935,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>140074</v>
+        <v>140110</v>
       </c>
       <c r="D112" t="n">
         <v>27812</v>
       </c>
       <c r="E112" t="n">
-        <v>689188213</v>
+        <v>689498819</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4976,13 +5043,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D113" t="n">
         <v>113</v>
       </c>
       <c r="E113" t="n">
-        <v>13723496</v>
+        <v>13730862</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5017,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D114" t="n">
         <v>13</v>
       </c>
       <c r="E114" t="n">
-        <v>1672879</v>
+        <v>1686024</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5058,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>78658</v>
+        <v>78690</v>
       </c>
       <c r="D115" t="n">
-        <v>14400</v>
+        <v>14401</v>
       </c>
       <c r="E115" t="n">
-        <v>410943145</v>
+        <v>411087773</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5181,13 +5248,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="D118" t="n">
         <v>1091</v>
       </c>
       <c r="E118" t="n">
-        <v>11915855</v>
+        <v>11917068</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5222,13 +5289,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>8653</v>
+        <v>8655</v>
       </c>
       <c r="D119" t="n">
         <v>1423</v>
       </c>
       <c r="E119" t="n">
-        <v>35568359</v>
+        <v>35569242</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5304,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1269855</v>
+        <v>1270325</v>
       </c>
       <c r="D121" t="n">
-        <v>220156</v>
+        <v>220163</v>
       </c>
       <c r="E121" t="n">
-        <v>2235985096</v>
+        <v>2236501878</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5345,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D122" t="n">
         <v>48</v>
       </c>
       <c r="E122" t="n">
-        <v>1061918</v>
+        <v>1062349</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5386,13 +5453,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D123" t="n">
         <v>130</v>
       </c>
       <c r="E123" t="n">
-        <v>4023035</v>
+        <v>4024351</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5550,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8234</v>
+        <v>8250</v>
       </c>
       <c r="D127" t="n">
         <v>1292</v>
       </c>
       <c r="E127" t="n">
-        <v>97635695</v>
+        <v>97781734</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5591,13 +5658,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D128" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E128" t="n">
-        <v>5289765</v>
+        <v>5292691</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5632,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>596254</v>
+        <v>596680</v>
       </c>
       <c r="D129" t="n">
-        <v>104729</v>
+        <v>104731</v>
       </c>
       <c r="E129" t="n">
-        <v>3108878575</v>
+        <v>3113133004</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5673,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3668</v>
+        <v>3671</v>
       </c>
       <c r="D130" t="n">
         <v>614</v>
       </c>
       <c r="E130" t="n">
-        <v>110036909</v>
+        <v>110224217</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5714,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D131" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E131" t="n">
-        <v>14714056</v>
+        <v>14869823</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5755,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>551029</v>
+        <v>551434</v>
       </c>
       <c r="D132" t="n">
-        <v>90345</v>
+        <v>90357</v>
       </c>
       <c r="E132" t="n">
-        <v>2997673354</v>
+        <v>3001308025</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5837,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>6749</v>
+        <v>6750</v>
       </c>
       <c r="D134" t="n">
         <v>1671</v>
       </c>
       <c r="E134" t="n">
-        <v>15808544</v>
+        <v>15818544</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5919,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>24897</v>
+        <v>24916</v>
       </c>
       <c r="D136" t="n">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E136" t="n">
-        <v>122825979</v>
+        <v>123006430</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6042,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>73082</v>
+        <v>73092</v>
       </c>
       <c r="D139" t="n">
         <v>17469</v>
       </c>
       <c r="E139" t="n">
-        <v>110017879</v>
+        <v>110032943</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6083,13 +6150,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D140" t="n">
         <v>11</v>
       </c>
       <c r="E140" t="n">
-        <v>59405</v>
+        <v>59870</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6247,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>22684</v>
+        <v>22688</v>
       </c>
       <c r="D144" t="n">
         <v>6137</v>
       </c>
       <c r="E144" t="n">
-        <v>74290393</v>
+        <v>74295547</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6329,13 +6396,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6660</v>
+        <v>6661</v>
       </c>
       <c r="D146" t="n">
         <v>1642</v>
       </c>
       <c r="E146" t="n">
-        <v>25377158</v>
+        <v>25466166</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6534,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>34288</v>
+        <v>34295</v>
       </c>
       <c r="D151" t="n">
         <v>7104</v>
       </c>
       <c r="E151" t="n">
-        <v>53674301</v>
+        <v>53679118</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6657,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>14786</v>
+        <v>14797</v>
       </c>
       <c r="D154" t="n">
         <v>3214</v>
       </c>
       <c r="E154" t="n">
-        <v>51095506</v>
+        <v>51160937</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6739,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>10312</v>
+        <v>10315</v>
       </c>
       <c r="D156" t="n">
         <v>2096</v>
       </c>
       <c r="E156" t="n">
-        <v>29464829</v>
+        <v>29467401</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6821,13 +6888,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D158" t="n">
         <v>127</v>
       </c>
       <c r="E158" t="n">
-        <v>1427941</v>
+        <v>1428247</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6862,13 +6929,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>43569</v>
+        <v>43570</v>
       </c>
       <c r="D159" t="n">
         <v>5415</v>
       </c>
       <c r="E159" t="n">
-        <v>101044039</v>
+        <v>101044579</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6903,13 +6970,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="D160" t="n">
         <v>681</v>
       </c>
       <c r="E160" t="n">
-        <v>12174839</v>
+        <v>12176619</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -7067,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>192752</v>
+        <v>192788</v>
       </c>
       <c r="D164" t="n">
         <v>42599</v>
       </c>
       <c r="E164" t="n">
-        <v>367157313</v>
+        <v>367206789</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7272,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="D169" t="n">
         <v>499</v>
       </c>
       <c r="E169" t="n">
-        <v>23543339</v>
+        <v>23544741</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7354,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>92728</v>
+        <v>92761</v>
       </c>
       <c r="D171" t="n">
         <v>18287</v>
       </c>
       <c r="E171" t="n">
-        <v>475464829</v>
+        <v>475563125</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7477,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>38936</v>
+        <v>38952</v>
       </c>
       <c r="D174" t="n">
         <v>7157</v>
       </c>
       <c r="E174" t="n">
-        <v>227127482</v>
+        <v>227507544</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7559,13 +7626,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="D176" t="n">
         <v>681</v>
       </c>
       <c r="E176" t="n">
-        <v>6594520</v>
+        <v>6611915</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7600,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6647</v>
+        <v>6651</v>
       </c>
       <c r="D177" t="n">
         <v>1156</v>
       </c>
       <c r="E177" t="n">
-        <v>28541059</v>
+        <v>28548834</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7641,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>508128</v>
+        <v>508204</v>
       </c>
       <c r="D178" t="n">
-        <v>115281</v>
+        <v>115283</v>
       </c>
       <c r="E178" t="n">
-        <v>883990580</v>
+        <v>884069896</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7723,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D180" t="n">
         <v>96</v>
       </c>
       <c r="E180" t="n">
-        <v>1479859</v>
+        <v>1480790</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7887,13 +7954,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="D184" t="n">
         <v>564</v>
       </c>
       <c r="E184" t="n">
-        <v>22299731</v>
+        <v>22303139</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7969,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>229139</v>
+        <v>229233</v>
       </c>
       <c r="D186" t="n">
-        <v>46256</v>
+        <v>46258</v>
       </c>
       <c r="E186" t="n">
-        <v>1149969423</v>
+        <v>1150545657</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8010,13 +8077,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D187" t="n">
         <v>132</v>
       </c>
       <c r="E187" t="n">
-        <v>20687529</v>
+        <v>20793846</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -8092,13 +8159,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>96845</v>
+        <v>96884</v>
       </c>
       <c r="D189" t="n">
-        <v>18254</v>
+        <v>18257</v>
       </c>
       <c r="E189" t="n">
-        <v>525082710</v>
+        <v>525376602</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8215,13 +8282,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>16244</v>
+        <v>16260</v>
       </c>
       <c r="D192" t="n">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="E192" t="n">
-        <v>80798402</v>
+        <v>80889799</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -8297,13 +8364,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>17668</v>
+        <v>17678</v>
       </c>
       <c r="D194" t="n">
         <v>2986</v>
       </c>
       <c r="E194" t="n">
-        <v>67924547</v>
+        <v>67956792</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8379,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>587072</v>
+        <v>587193</v>
       </c>
       <c r="D196" t="n">
-        <v>127038</v>
+        <v>127043</v>
       </c>
       <c r="E196" t="n">
-        <v>977447475</v>
+        <v>977630800</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8420,13 +8487,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D197" t="n">
         <v>74</v>
       </c>
       <c r="E197" t="n">
-        <v>793448</v>
+        <v>793955</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -8625,13 +8692,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="D202" t="n">
         <v>370</v>
       </c>
       <c r="E202" t="n">
-        <v>17060422</v>
+        <v>17108995</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -8707,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>257419</v>
+        <v>257516</v>
       </c>
       <c r="D204" t="n">
-        <v>49716</v>
+        <v>49717</v>
       </c>
       <c r="E204" t="n">
-        <v>1230439156</v>
+        <v>1230965072</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8830,13 +8897,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>149741</v>
+        <v>149806</v>
       </c>
       <c r="D207" t="n">
-        <v>27030</v>
+        <v>27032</v>
       </c>
       <c r="E207" t="n">
-        <v>720245454</v>
+        <v>720606821</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8953,13 +9020,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>11820</v>
+        <v>11827</v>
       </c>
       <c r="D210" t="n">
         <v>3229</v>
       </c>
       <c r="E210" t="n">
-        <v>41110158</v>
+        <v>41150569</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -9076,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>22413</v>
+        <v>22430</v>
       </c>
       <c r="D213" t="n">
         <v>3530</v>
       </c>
       <c r="E213" t="n">
-        <v>83167913</v>
+        <v>83266518</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9158,13 +9225,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>226504</v>
+        <v>226556</v>
       </c>
       <c r="D215" t="n">
         <v>52378</v>
       </c>
       <c r="E215" t="n">
-        <v>405414596</v>
+        <v>405482638</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9322,13 +9389,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="D219" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E219" t="n">
-        <v>18899711</v>
+        <v>18904476</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -9404,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>130857</v>
+        <v>130912</v>
       </c>
       <c r="D221" t="n">
-        <v>27139</v>
+        <v>27140</v>
       </c>
       <c r="E221" t="n">
-        <v>660408741</v>
+        <v>660707379</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -9527,13 +9594,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>38072</v>
+        <v>38090</v>
       </c>
       <c r="D224" t="n">
-        <v>7189</v>
+        <v>7190</v>
       </c>
       <c r="E224" t="n">
-        <v>240021185</v>
+        <v>240372507</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9609,13 +9676,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4279</v>
+        <v>4282</v>
       </c>
       <c r="D226" t="n">
         <v>1261</v>
       </c>
       <c r="E226" t="n">
-        <v>15901456</v>
+        <v>15927710</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -9691,13 +9758,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>9451</v>
+        <v>9455</v>
       </c>
       <c r="D228" t="n">
         <v>1583</v>
       </c>
       <c r="E228" t="n">
-        <v>40763699</v>
+        <v>40770131</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9732,13 +9799,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>602980</v>
+        <v>603122</v>
       </c>
       <c r="D229" t="n">
-        <v>121143</v>
+        <v>121147</v>
       </c>
       <c r="E229" t="n">
-        <v>1032323824</v>
+        <v>1032468822</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -9978,13 +10045,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>4110</v>
+        <v>4112</v>
       </c>
       <c r="D235" t="n">
         <v>601</v>
       </c>
       <c r="E235" t="n">
-        <v>32910307</v>
+        <v>32911933</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -10060,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>274316</v>
+        <v>274415</v>
       </c>
       <c r="D237" t="n">
-        <v>49728</v>
+        <v>49729</v>
       </c>
       <c r="E237" t="n">
-        <v>1385530251</v>
+        <v>1386255482</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10183,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>199140</v>
+        <v>199215</v>
       </c>
       <c r="D240" t="n">
-        <v>33899</v>
+        <v>33900</v>
       </c>
       <c r="E240" t="n">
-        <v>1007056947</v>
+        <v>1007608111</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -10265,13 +10332,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D242" t="n">
         <v>28</v>
       </c>
       <c r="E242" t="n">
-        <v>5486491</v>
+        <v>5544292</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -10306,13 +10373,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>6993</v>
+        <v>6999</v>
       </c>
       <c r="D243" t="n">
         <v>1816</v>
       </c>
       <c r="E243" t="n">
-        <v>26621067</v>
+        <v>26643902</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10429,13 +10496,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>17915</v>
+        <v>17929</v>
       </c>
       <c r="D246" t="n">
         <v>2718</v>
       </c>
       <c r="E246" t="n">
-        <v>68141535</v>
+        <v>68296708</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
